--- a/01.学习资料/账单.xlsx
+++ b/01.学习资料/账单.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\01.公司文档\11.考勤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydoc\01.学习资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9591F58-6032-417F-BBD3-CB9C8A2E569F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A71715-C597-41CD-BEFC-C754E838A9B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{459BAA9B-ACE5-48C0-A10A-2410D7FFC1BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{459BAA9B-ACE5-48C0-A10A-2410D7FFC1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$G$66</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="188">
   <si>
     <t>网上快捷支付</t>
   </si>
@@ -410,6 +414,290 @@
   </si>
   <si>
     <t>《刺客信条：奥德赛》- Season Pass (中英韩文版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冈布奥号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大和丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武藏丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加勒比号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆桌骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路西法之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙大帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗米修斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙隼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇美拉之翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪眼暴君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴影之龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达拉蒙特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒之塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特祖玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉斯托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走私者号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素大陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封王座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒王座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘法蜗牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环游者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空鳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝希摩斯之角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝希摩斯之翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝希摩斯之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝希摩斯之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立方体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道卫星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六重天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊甸1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊甸2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊甸3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维京战机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊甸4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战列巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歼星舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣蝉护卫舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星空护卫舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镭射幽浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗运输机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维尔狄蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救赎之盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜轮号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈并者熵船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割者-MR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支配者号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐柏林号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命之息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运之轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际穿越者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴虐鲛鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +708,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -506,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,7 +855,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3049,7 +3340,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{429016CD-51D0-474A-BF8D-4D82858FE873}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{429016CD-51D0-474A-BF8D-4D82858FE873}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="descending">
@@ -9030,7 +9321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BA30BC-C7E4-428C-97C2-496299E2CEAC}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9119,7 +9410,7 @@
         <v>187.6</v>
       </c>
       <c r="E5" s="16">
-        <f>C5-D5</f>
+        <f t="shared" ref="E5:E20" si="0">C5-D5</f>
         <v>80.400000000000006</v>
       </c>
     </row>
@@ -9137,7 +9428,7 @@
         <v>199</v>
       </c>
       <c r="E6" s="16">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9155,7 +9446,7 @@
         <v>154</v>
       </c>
       <c r="E7" s="16">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9173,7 +9464,7 @@
         <v>59.2</v>
       </c>
       <c r="E8" s="16">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>14.799999999999997</v>
       </c>
     </row>
@@ -9191,7 +9482,7 @@
         <v>29.6</v>
       </c>
       <c r="E9" s="16">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9209,7 +9500,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="16">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>-2.1999999999999993</v>
       </c>
     </row>
@@ -9227,7 +9518,7 @@
         <v>29.7</v>
       </c>
       <c r="E11" s="16">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>9.9000000000000021</v>
       </c>
     </row>
@@ -9245,7 +9536,7 @@
         <v>39.6</v>
       </c>
       <c r="E12" s="16">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>19.799999999999997</v>
       </c>
     </row>
@@ -9263,7 +9554,7 @@
         <v>98</v>
       </c>
       <c r="E13" s="16">
-        <f>C13-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9281,7 +9572,7 @@
         <v>84</v>
       </c>
       <c r="E14" s="16">
-        <f>C14-D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9299,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="16">
-        <f>C15-D15</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
     </row>
@@ -9317,7 +9608,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E16" s="16">
-        <f>C16-D16</f>
+        <f t="shared" si="0"/>
         <v>9.7000000000000028</v>
       </c>
     </row>
@@ -9335,7 +9626,7 @@
         <v>93</v>
       </c>
       <c r="E17" s="16">
-        <f>C17-D17</f>
+        <f t="shared" si="0"/>
         <v>23.700000000000003</v>
       </c>
     </row>
@@ -9353,7 +9644,7 @@
         <v>187.6</v>
       </c>
       <c r="E18" s="16">
-        <f>C18-D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9371,7 +9662,7 @@
         <v>184</v>
       </c>
       <c r="E19" s="16">
-        <f>C19-D19</f>
+        <f t="shared" si="0"/>
         <v>-15.870000000000005</v>
       </c>
     </row>
@@ -9389,7 +9680,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="16">
-        <f>C20-D20</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -9674,4 +9965,1893 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF615926-8F87-4F80-8E47-5ED85890AE5F}">
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="21">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21">
+        <v>28</v>
+      </c>
+      <c r="D2" s="21">
+        <v>28</v>
+      </c>
+      <c r="E2" s="21">
+        <v>26</v>
+      </c>
+      <c r="F2" s="21">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21">
+        <f>SUM(C2:F2)</f>
+        <v>107</v>
+      </c>
+      <c r="H2" s="21">
+        <f>G2-E2</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="21">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21">
+        <v>23</v>
+      </c>
+      <c r="D3" s="21">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21">
+        <v>28</v>
+      </c>
+      <c r="F3" s="21">
+        <v>18</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" ref="G3:G66" si="0">SUM(C3:F3)</f>
+        <v>107</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H66" si="1">G3-E3</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="21">
+        <v>6</v>
+      </c>
+      <c r="C4" s="21">
+        <v>36</v>
+      </c>
+      <c r="D4" s="21">
+        <v>35</v>
+      </c>
+      <c r="E4" s="21">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21">
+        <v>18</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="21">
+        <v>6</v>
+      </c>
+      <c r="C5" s="21">
+        <v>33</v>
+      </c>
+      <c r="D5" s="21">
+        <v>18</v>
+      </c>
+      <c r="E5" s="21">
+        <v>23</v>
+      </c>
+      <c r="F5" s="21">
+        <v>33</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21">
+        <v>33</v>
+      </c>
+      <c r="D6" s="21">
+        <v>23</v>
+      </c>
+      <c r="E6" s="21">
+        <v>23</v>
+      </c>
+      <c r="F6" s="21">
+        <v>28</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="21">
+        <v>19</v>
+      </c>
+      <c r="D7" s="21">
+        <v>38</v>
+      </c>
+      <c r="E7" s="21">
+        <v>31</v>
+      </c>
+      <c r="F7" s="21">
+        <v>19</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="21">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21">
+        <v>23</v>
+      </c>
+      <c r="E8" s="21">
+        <v>33</v>
+      </c>
+      <c r="F8" s="21">
+        <v>25</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21">
+        <v>33</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21">
+        <v>23</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="21">
+        <v>21</v>
+      </c>
+      <c r="D10" s="21">
+        <v>27</v>
+      </c>
+      <c r="E10" s="21">
+        <v>33</v>
+      </c>
+      <c r="F10" s="21">
+        <v>28</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="21">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21">
+        <v>28</v>
+      </c>
+      <c r="E11" s="21">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21">
+        <v>35</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="21">
+        <v>6</v>
+      </c>
+      <c r="C12" s="21">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21">
+        <v>18</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="21">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21">
+        <v>25</v>
+      </c>
+      <c r="D13" s="21">
+        <v>23</v>
+      </c>
+      <c r="E13" s="21">
+        <v>26</v>
+      </c>
+      <c r="F13" s="21">
+        <v>33</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="21">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21">
+        <v>43</v>
+      </c>
+      <c r="D14" s="21">
+        <v>18</v>
+      </c>
+      <c r="E14" s="21">
+        <v>33</v>
+      </c>
+      <c r="F14" s="21">
+        <v>18</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="21">
+        <v>6</v>
+      </c>
+      <c r="C15" s="21">
+        <v>38</v>
+      </c>
+      <c r="D15" s="21">
+        <v>23</v>
+      </c>
+      <c r="E15" s="21">
+        <v>18</v>
+      </c>
+      <c r="F15" s="21">
+        <v>28</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="21">
+        <v>6</v>
+      </c>
+      <c r="C16" s="21">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21">
+        <v>25</v>
+      </c>
+      <c r="F16" s="21">
+        <v>38</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="21">
+        <v>6</v>
+      </c>
+      <c r="C17" s="21">
+        <v>28</v>
+      </c>
+      <c r="D17" s="21">
+        <v>33</v>
+      </c>
+      <c r="E17" s="21">
+        <v>23</v>
+      </c>
+      <c r="F17" s="21">
+        <v>23</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="21">
+        <v>6</v>
+      </c>
+      <c r="C18" s="21">
+        <v>27</v>
+      </c>
+      <c r="D18" s="21">
+        <v>27</v>
+      </c>
+      <c r="E18" s="21">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21">
+        <v>27</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="21">
+        <v>4</v>
+      </c>
+      <c r="C19" s="21">
+        <v>25</v>
+      </c>
+      <c r="D19" s="21">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21">
+        <v>15</v>
+      </c>
+      <c r="F19" s="21">
+        <v>25</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="21">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21">
+        <v>23</v>
+      </c>
+      <c r="E20" s="21">
+        <v>30</v>
+      </c>
+      <c r="F20" s="21">
+        <v>28</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21">
+        <v>33</v>
+      </c>
+      <c r="D21" s="21">
+        <v>23</v>
+      </c>
+      <c r="E21" s="21">
+        <v>33</v>
+      </c>
+      <c r="F21" s="21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="21">
+        <v>6</v>
+      </c>
+      <c r="C22" s="21">
+        <v>25</v>
+      </c>
+      <c r="D22" s="21">
+        <v>33</v>
+      </c>
+      <c r="E22" s="21">
+        <v>28</v>
+      </c>
+      <c r="F22" s="21">
+        <v>23</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21">
+        <v>15</v>
+      </c>
+      <c r="D23" s="21">
+        <v>9</v>
+      </c>
+      <c r="E23" s="21">
+        <v>10</v>
+      </c>
+      <c r="F23" s="21">
+        <v>9</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="21">
+        <v>6</v>
+      </c>
+      <c r="C24" s="21">
+        <v>28</v>
+      </c>
+      <c r="D24" s="21">
+        <v>27</v>
+      </c>
+      <c r="E24" s="21">
+        <v>26</v>
+      </c>
+      <c r="F24" s="21">
+        <v>33</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="21">
+        <v>6</v>
+      </c>
+      <c r="C25" s="21">
+        <v>25</v>
+      </c>
+      <c r="D25" s="21">
+        <v>33</v>
+      </c>
+      <c r="E25" s="21">
+        <v>23</v>
+      </c>
+      <c r="F25" s="21">
+        <v>28</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="21">
+        <v>6</v>
+      </c>
+      <c r="C26" s="21">
+        <v>21</v>
+      </c>
+      <c r="D26" s="21">
+        <v>33</v>
+      </c>
+      <c r="E26" s="21">
+        <v>27</v>
+      </c>
+      <c r="F26" s="21">
+        <v>28</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="21">
+        <v>6</v>
+      </c>
+      <c r="C27" s="21">
+        <v>23</v>
+      </c>
+      <c r="D27" s="21">
+        <v>25</v>
+      </c>
+      <c r="E27" s="21">
+        <v>33</v>
+      </c>
+      <c r="F27" s="21">
+        <v>28</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="21">
+        <v>6</v>
+      </c>
+      <c r="C28" s="21">
+        <v>25</v>
+      </c>
+      <c r="D28" s="21">
+        <v>33</v>
+      </c>
+      <c r="E28" s="21">
+        <v>18</v>
+      </c>
+      <c r="F28" s="21">
+        <v>33</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="21">
+        <v>6</v>
+      </c>
+      <c r="C29" s="21">
+        <v>23</v>
+      </c>
+      <c r="D29" s="21">
+        <v>25</v>
+      </c>
+      <c r="E29" s="21">
+        <v>23</v>
+      </c>
+      <c r="F29" s="21">
+        <v>38</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="21">
+        <v>6</v>
+      </c>
+      <c r="C30" s="21">
+        <v>38</v>
+      </c>
+      <c r="D30" s="21">
+        <v>20</v>
+      </c>
+      <c r="E30" s="21">
+        <v>28</v>
+      </c>
+      <c r="F30" s="21">
+        <v>28</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H30" s="21">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="21">
+        <v>6</v>
+      </c>
+      <c r="C31" s="21">
+        <v>23</v>
+      </c>
+      <c r="D31" s="21">
+        <v>30</v>
+      </c>
+      <c r="E31" s="21">
+        <v>38</v>
+      </c>
+      <c r="F31" s="21">
+        <v>23</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="21">
+        <v>6</v>
+      </c>
+      <c r="C32" s="21">
+        <v>33</v>
+      </c>
+      <c r="D32" s="21">
+        <v>25</v>
+      </c>
+      <c r="E32" s="21">
+        <v>28</v>
+      </c>
+      <c r="F32" s="21">
+        <v>23</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="21">
+        <v>5</v>
+      </c>
+      <c r="C33" s="21">
+        <v>28</v>
+      </c>
+      <c r="D33" s="21">
+        <v>28</v>
+      </c>
+      <c r="E33" s="21">
+        <v>20</v>
+      </c>
+      <c r="F33" s="21">
+        <v>38</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="21">
+        <v>6</v>
+      </c>
+      <c r="C34" s="21">
+        <v>27</v>
+      </c>
+      <c r="D34" s="21">
+        <v>34</v>
+      </c>
+      <c r="E34" s="21">
+        <v>22</v>
+      </c>
+      <c r="F34" s="21">
+        <v>22</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="21">
+        <v>6</v>
+      </c>
+      <c r="C35" s="21">
+        <v>20</v>
+      </c>
+      <c r="D35" s="21">
+        <v>20</v>
+      </c>
+      <c r="E35" s="21">
+        <v>32</v>
+      </c>
+      <c r="F35" s="21">
+        <v>25</v>
+      </c>
+      <c r="G35" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="21">
+        <v>6</v>
+      </c>
+      <c r="C36" s="21">
+        <v>32</v>
+      </c>
+      <c r="D36" s="21">
+        <v>20</v>
+      </c>
+      <c r="E36" s="21">
+        <v>25</v>
+      </c>
+      <c r="F36" s="21">
+        <v>20</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="21">
+        <v>6</v>
+      </c>
+      <c r="C37" s="21">
+        <v>22</v>
+      </c>
+      <c r="D37" s="21">
+        <v>27</v>
+      </c>
+      <c r="E37" s="21">
+        <v>22</v>
+      </c>
+      <c r="F37" s="21">
+        <v>34</v>
+      </c>
+      <c r="G37" s="21">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H37" s="21">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="21">
+        <v>4</v>
+      </c>
+      <c r="C38" s="21">
+        <v>16</v>
+      </c>
+      <c r="D38" s="21">
+        <v>27</v>
+      </c>
+      <c r="E38" s="21">
+        <v>19</v>
+      </c>
+      <c r="F38" s="21">
+        <v>18</v>
+      </c>
+      <c r="G38" s="21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H38" s="21">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="21">
+        <v>6</v>
+      </c>
+      <c r="C39" s="21">
+        <v>28</v>
+      </c>
+      <c r="D39" s="21">
+        <v>28</v>
+      </c>
+      <c r="E39" s="21">
+        <v>38</v>
+      </c>
+      <c r="F39" s="21">
+        <v>20</v>
+      </c>
+      <c r="G39" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H39" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="21">
+        <v>6</v>
+      </c>
+      <c r="C40" s="21">
+        <v>23</v>
+      </c>
+      <c r="D40" s="21">
+        <v>23</v>
+      </c>
+      <c r="E40" s="21">
+        <v>33</v>
+      </c>
+      <c r="F40" s="21">
+        <v>30</v>
+      </c>
+      <c r="G40" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H40" s="21">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="21">
+        <v>6</v>
+      </c>
+      <c r="C41" s="21">
+        <v>23</v>
+      </c>
+      <c r="D41" s="21">
+        <v>32</v>
+      </c>
+      <c r="E41" s="21">
+        <v>29</v>
+      </c>
+      <c r="F41" s="21">
+        <v>25</v>
+      </c>
+      <c r="G41" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H41" s="21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="21">
+        <v>6</v>
+      </c>
+      <c r="C42" s="21">
+        <v>23</v>
+      </c>
+      <c r="D42" s="21">
+        <v>32</v>
+      </c>
+      <c r="E42" s="21">
+        <v>29</v>
+      </c>
+      <c r="F42" s="21">
+        <v>25</v>
+      </c>
+      <c r="G42" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H42" s="21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="21">
+        <v>6</v>
+      </c>
+      <c r="C43" s="21">
+        <v>23</v>
+      </c>
+      <c r="D43" s="21">
+        <v>32</v>
+      </c>
+      <c r="E43" s="21">
+        <v>29</v>
+      </c>
+      <c r="F43" s="21">
+        <v>25</v>
+      </c>
+      <c r="G43" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H43" s="21">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="21">
+        <v>6</v>
+      </c>
+      <c r="C44" s="21">
+        <v>32</v>
+      </c>
+      <c r="D44" s="21">
+        <v>31</v>
+      </c>
+      <c r="E44" s="21">
+        <v>23</v>
+      </c>
+      <c r="F44" s="21">
+        <v>28</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="21">
+        <v>6</v>
+      </c>
+      <c r="C45" s="21">
+        <v>23</v>
+      </c>
+      <c r="D45" s="21">
+        <v>33</v>
+      </c>
+      <c r="E45" s="21">
+        <v>25</v>
+      </c>
+      <c r="F45" s="21">
+        <v>28</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H45" s="21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="21">
+        <v>6</v>
+      </c>
+      <c r="C46" s="21">
+        <v>33</v>
+      </c>
+      <c r="D46" s="21">
+        <v>28</v>
+      </c>
+      <c r="E46" s="21">
+        <v>23</v>
+      </c>
+      <c r="F46" s="21">
+        <v>28</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="H46" s="21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="21">
+        <v>3</v>
+      </c>
+      <c r="C47" s="21">
+        <v>13</v>
+      </c>
+      <c r="D47" s="21">
+        <v>17</v>
+      </c>
+      <c r="E47" s="21">
+        <v>17</v>
+      </c>
+      <c r="F47" s="21">
+        <v>14</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H47" s="21">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="21">
+        <v>6</v>
+      </c>
+      <c r="C48" s="21">
+        <v>31</v>
+      </c>
+      <c r="D48" s="21">
+        <v>30</v>
+      </c>
+      <c r="E48" s="21">
+        <v>28</v>
+      </c>
+      <c r="F48" s="21">
+        <v>25</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H48" s="21">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="21">
+        <v>3</v>
+      </c>
+      <c r="C49" s="21">
+        <v>13</v>
+      </c>
+      <c r="D49" s="21">
+        <v>20</v>
+      </c>
+      <c r="E49" s="21">
+        <v>12</v>
+      </c>
+      <c r="F49" s="21">
+        <v>13</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H49" s="21">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="21">
+        <v>4</v>
+      </c>
+      <c r="C50" s="21">
+        <v>20</v>
+      </c>
+      <c r="D50" s="21">
+        <v>16</v>
+      </c>
+      <c r="E50" s="21">
+        <v>24</v>
+      </c>
+      <c r="F50" s="21">
+        <v>20</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H50" s="21">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="21">
+        <v>6</v>
+      </c>
+      <c r="C51" s="21">
+        <v>23</v>
+      </c>
+      <c r="D51" s="21">
+        <v>30</v>
+      </c>
+      <c r="E51" s="21">
+        <v>28</v>
+      </c>
+      <c r="F51" s="21">
+        <v>28</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H51" s="21">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="21">
+        <v>6</v>
+      </c>
+      <c r="C52" s="21">
+        <v>27</v>
+      </c>
+      <c r="D52" s="21">
+        <v>20</v>
+      </c>
+      <c r="E52" s="21">
+        <v>27</v>
+      </c>
+      <c r="F52" s="21">
+        <v>35</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="H52" s="21">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="21">
+        <v>6</v>
+      </c>
+      <c r="C53" s="21">
+        <v>23</v>
+      </c>
+      <c r="D53" s="21">
+        <v>28</v>
+      </c>
+      <c r="E53" s="21">
+        <v>23</v>
+      </c>
+      <c r="F53" s="21">
+        <v>40</v>
+      </c>
+      <c r="G53" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H53" s="21">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="21">
+        <v>6</v>
+      </c>
+      <c r="C54" s="21">
+        <v>33</v>
+      </c>
+      <c r="D54" s="21">
+        <v>28</v>
+      </c>
+      <c r="E54" s="21">
+        <v>23</v>
+      </c>
+      <c r="F54" s="21">
+        <v>30</v>
+      </c>
+      <c r="G54" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H54" s="21">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="21">
+        <v>2</v>
+      </c>
+      <c r="C55" s="21">
+        <v>10</v>
+      </c>
+      <c r="D55" s="21">
+        <v>13</v>
+      </c>
+      <c r="E55" s="21">
+        <v>11</v>
+      </c>
+      <c r="F55" s="21">
+        <v>9</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H55" s="21">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="21">
+        <v>2</v>
+      </c>
+      <c r="C56" s="21">
+        <v>10</v>
+      </c>
+      <c r="D56" s="21">
+        <v>9</v>
+      </c>
+      <c r="E56" s="21">
+        <v>11</v>
+      </c>
+      <c r="F56" s="21">
+        <v>13</v>
+      </c>
+      <c r="G56" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H56" s="21">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="21">
+        <v>2</v>
+      </c>
+      <c r="C57" s="21">
+        <v>11</v>
+      </c>
+      <c r="D57" s="21">
+        <v>12</v>
+      </c>
+      <c r="E57" s="21">
+        <v>11</v>
+      </c>
+      <c r="F57" s="21">
+        <v>9</v>
+      </c>
+      <c r="G57" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H57" s="21">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="21">
+        <v>2</v>
+      </c>
+      <c r="C58" s="21">
+        <v>13</v>
+      </c>
+      <c r="D58" s="21">
+        <v>9</v>
+      </c>
+      <c r="E58" s="21">
+        <v>11</v>
+      </c>
+      <c r="F58" s="21">
+        <v>10</v>
+      </c>
+      <c r="G58" s="21">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H58" s="21">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="21">
+        <v>4</v>
+      </c>
+      <c r="C59" s="21">
+        <v>22</v>
+      </c>
+      <c r="D59" s="21">
+        <v>17</v>
+      </c>
+      <c r="E59" s="21">
+        <v>19</v>
+      </c>
+      <c r="F59" s="21">
+        <v>22</v>
+      </c>
+      <c r="G59" s="21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H59" s="21">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="21">
+        <v>6</v>
+      </c>
+      <c r="C60" s="21">
+        <v>33</v>
+      </c>
+      <c r="D60" s="21">
+        <v>28</v>
+      </c>
+      <c r="E60" s="21">
+        <v>23</v>
+      </c>
+      <c r="F60" s="21">
+        <v>30</v>
+      </c>
+      <c r="G60" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H60" s="21">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="21">
+        <v>6</v>
+      </c>
+      <c r="C61" s="21">
+        <v>28</v>
+      </c>
+      <c r="D61" s="21">
+        <v>33</v>
+      </c>
+      <c r="E61" s="21">
+        <v>20</v>
+      </c>
+      <c r="F61" s="21">
+        <v>33</v>
+      </c>
+      <c r="G61" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H61" s="21">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="21">
+        <v>5</v>
+      </c>
+      <c r="C62" s="21">
+        <v>23</v>
+      </c>
+      <c r="D62" s="21">
+        <v>33</v>
+      </c>
+      <c r="E62" s="21">
+        <v>25</v>
+      </c>
+      <c r="F62" s="21">
+        <v>33</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H62" s="21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="21">
+        <v>4</v>
+      </c>
+      <c r="C63" s="21">
+        <v>20</v>
+      </c>
+      <c r="D63" s="21">
+        <v>19</v>
+      </c>
+      <c r="E63" s="21">
+        <v>19</v>
+      </c>
+      <c r="F63" s="21">
+        <v>25</v>
+      </c>
+      <c r="G63" s="21">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="H63" s="21">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G66" xr:uid="{2E05DCFD-B726-4F13-8CF5-3922BB6DB838}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:F1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G2:G66" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>